--- a/1 course.xlsx
+++ b/1 course.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="57">
   <si>
     <t>group</t>
   </si>
@@ -178,18 +178,38 @@
   </si>
   <si>
     <t>КАКОЙ ТО ДЛИНЫЙ УРОК С ДЛИННЫМ НАЗВАНИЕМ</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>Расписание для 10 - 15октября</t>
+  </si>
+  <si>
+    <t>Digital Design and Computer Architecture nsakdaksdjajsddka</t>
+  </si>
+  <si>
+    <t>8:30 - 09:50</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -280,7 +300,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -303,74 +323,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="20" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyBorder="1"/>
-    <xf numFmtId="20" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="20" fontId="4" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="4" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="7" applyBorder="1"/>
-    <xf numFmtId="20" fontId="5" fillId="8" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="5" fillId="8" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="6" applyBorder="1"/>
-    <xf numFmtId="20" fontId="5" fillId="7" borderId="1" xfId="6" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="5" fillId="7" borderId="1" xfId="6" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="5" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="5" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="20" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="20" fontId="5" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="5" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="20" fontId="5" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="5" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyBorder="1"/>
+    <xf numFmtId="20" fontId="6" fillId="8" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="6" fillId="8" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="20" fontId="6" fillId="7" borderId="1" xfId="6" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="6" fillId="7" borderId="1" xfId="6" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="6" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="6" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -663,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -682,6 +717,7 @@
     <col min="11" max="11" width="13.5546875" customWidth="1"/>
     <col min="12" max="12" width="20.44140625" customWidth="1"/>
     <col min="13" max="13" width="13.5546875" customWidth="1"/>
+    <col min="14" max="14" width="51.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -724,80 +760,84 @@
       <c r="M1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="1"/>
+      <c r="N1" s="29" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="33" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="28" t="s">
         <v>52</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="38" t="s">
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="38" t="s">
+      <c r="J2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="38" t="s">
-        <v>52</v>
-      </c>
       <c r="L2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="1"/>
+      <c r="M2" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="30" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="28" t="s">
         <v>52</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="28" t="s">
         <v>52</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="28" t="s">
         <v>52</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="28" t="s">
         <v>52</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="K3" s="28" t="s">
         <v>52</v>
       </c>
       <c r="L3" s="3" t="s">
@@ -806,38 +846,38 @@
       <c r="M3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="1"/>
+      <c r="N3" s="30"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="28" t="s">
         <v>52</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="28" t="s">
         <v>52</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="28" t="s">
         <v>52</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="28" t="s">
         <v>52</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="38" t="s">
+      <c r="K4" s="28" t="s">
         <v>52</v>
       </c>
       <c r="L4" s="3" t="s">
@@ -846,38 +886,38 @@
       <c r="M4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="1"/>
+      <c r="N4" s="30"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="28" t="s">
         <v>52</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="28" t="s">
         <v>52</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="28" t="s">
         <v>52</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="38" t="s">
+      <c r="I5" s="28" t="s">
         <v>52</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="38" t="s">
+      <c r="K5" s="28" t="s">
         <v>52</v>
       </c>
       <c r="L5" s="3" t="s">
@@ -886,38 +926,38 @@
       <c r="M5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="1"/>
+      <c r="N5" s="30"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="28" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="28" t="s">
         <v>52</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="28" t="s">
         <v>52</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="28" t="s">
         <v>52</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="38" t="s">
+      <c r="K6" s="28" t="s">
         <v>52</v>
       </c>
       <c r="L6" s="3" t="s">
@@ -926,38 +966,38 @@
       <c r="M6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="1"/>
+      <c r="N6" s="30"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="28" t="s">
         <v>52</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="28" t="s">
         <v>52</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="28" t="s">
         <v>52</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="38" t="s">
+      <c r="I7" s="28" t="s">
         <v>52</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="38" t="s">
+      <c r="K7" s="28" t="s">
         <v>52</v>
       </c>
       <c r="L7" s="3" t="s">
@@ -966,10 +1006,10 @@
       <c r="M7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="1"/>
+      <c r="N7" s="30"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="40" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -1008,10 +1048,10 @@
       <c r="M8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N8" s="1"/>
+      <c r="N8" s="30"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="36"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
@@ -1048,10 +1088,10 @@
       <c r="M9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="1"/>
+      <c r="N9" s="30"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="36"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
@@ -1088,10 +1128,10 @@
       <c r="M10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N10" s="1"/>
+      <c r="N10" s="30"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="36"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
@@ -1128,10 +1168,10 @@
       <c r="M11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="1"/>
+      <c r="N11" s="30"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="36"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="6" t="s">
         <v>16</v>
       </c>
@@ -1168,10 +1208,10 @@
       <c r="M12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N12" s="1"/>
+      <c r="N12" s="30"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="36"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
       </c>
@@ -1208,10 +1248,10 @@
       <c r="M13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N13" s="1"/>
+      <c r="N13" s="30"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="41" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -1250,10 +1290,10 @@
       <c r="M14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="N14" s="1"/>
+      <c r="N14" s="30"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="9" t="s">
         <v>13</v>
       </c>
@@ -1290,10 +1330,10 @@
       <c r="M15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="1"/>
+      <c r="N15" s="30"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="32"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="9" t="s">
         <v>14</v>
       </c>
@@ -1330,10 +1370,10 @@
       <c r="M16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="1"/>
+      <c r="N16" s="30"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="32"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="9" t="s">
         <v>15</v>
       </c>
@@ -1370,10 +1410,10 @@
       <c r="M17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N17" s="1"/>
+      <c r="N17" s="30"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="32"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="9" t="s">
         <v>16</v>
       </c>
@@ -1410,10 +1450,10 @@
       <c r="M18" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N18" s="1"/>
+      <c r="N18" s="27"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="32"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="9" t="s">
         <v>17</v>
       </c>
@@ -1450,10 +1490,10 @@
       <c r="M19" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="N19" s="1"/>
+      <c r="N19" s="27"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="38" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -1492,10 +1532,10 @@
       <c r="M20" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="N20" s="1"/>
+      <c r="N20" s="27"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="34"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="12" t="s">
         <v>13</v>
       </c>
@@ -1532,10 +1572,10 @@
       <c r="M21" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N21" s="1"/>
+      <c r="N21" s="27"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="34"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="12" t="s">
         <v>14</v>
       </c>
@@ -1572,10 +1612,10 @@
       <c r="M22" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N22" s="1"/>
+      <c r="N22" s="27"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="34"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="12" t="s">
         <v>15</v>
       </c>
@@ -1612,10 +1652,10 @@
       <c r="M23" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="N23" s="1"/>
+      <c r="N23" s="27"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="34"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="12" t="s">
         <v>16</v>
       </c>
@@ -1652,10 +1692,10 @@
       <c r="M24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="N24" s="1"/>
+      <c r="N24" s="27"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="34"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="12" t="s">
         <v>17</v>
       </c>
@@ -1692,10 +1732,10 @@
       <c r="M25" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="N25" s="1"/>
+      <c r="N25" s="27"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="39" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1734,9 +1774,10 @@
       <c r="M26" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="N26" s="27"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="35"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="2" t="s">
         <v>13</v>
       </c>
@@ -1773,9 +1814,10 @@
       <c r="M27" s="21" t="s">
         <v>23</v>
       </c>
+      <c r="N27" s="27"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="35"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="2" t="s">
         <v>14</v>
       </c>
@@ -1812,9 +1854,10 @@
       <c r="M28" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="N28" s="27"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="35"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="2" t="s">
         <v>15</v>
       </c>
@@ -1851,9 +1894,10 @@
       <c r="M29" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="N29" s="27"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="35"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="2" t="s">
         <v>16</v>
       </c>
@@ -1890,9 +1934,10 @@
       <c r="M30" s="22" t="s">
         <v>26</v>
       </c>
+      <c r="N30" s="27"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="35"/>
+      <c r="A31" s="39"/>
       <c r="B31" s="2" t="s">
         <v>17</v>
       </c>
@@ -1929,9 +1974,10 @@
       <c r="M31" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="N31" s="27"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="33" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -1970,9 +2016,10 @@
       <c r="M32" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="N32" s="27"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
+      <c r="A33" s="34"/>
       <c r="B33" s="3" t="s">
         <v>13</v>
       </c>
@@ -2011,7 +2058,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
+      <c r="A34" s="34"/>
       <c r="B34" s="3" t="s">
         <v>14</v>
       </c>
@@ -2050,7 +2097,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
+      <c r="A35" s="34"/>
       <c r="B35" s="3" t="s">
         <v>15</v>
       </c>
@@ -2089,7 +2136,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
+      <c r="A36" s="34"/>
       <c r="B36" s="3" t="s">
         <v>16</v>
       </c>
@@ -2128,7 +2175,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="30"/>
+      <c r="A37" s="34"/>
       <c r="B37" s="3" t="s">
         <v>17</v>
       </c>
@@ -2167,7 +2214,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="35" t="s">
         <v>34</v>
       </c>
       <c r="B38" s="18" t="s">
@@ -2208,7 +2255,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="31"/>
+      <c r="A39" s="35"/>
       <c r="B39" s="18" t="s">
         <v>13</v>
       </c>
@@ -2247,7 +2294,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="31"/>
+      <c r="A40" s="35"/>
       <c r="B40" s="18" t="s">
         <v>14</v>
       </c>
@@ -2286,7 +2333,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="31"/>
+      <c r="A41" s="35"/>
       <c r="B41" s="18" t="s">
         <v>15</v>
       </c>
@@ -2325,7 +2372,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="31"/>
+      <c r="A42" s="35"/>
       <c r="B42" s="18" t="s">
         <v>16</v>
       </c>
@@ -2364,7 +2411,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="31"/>
+      <c r="A43" s="35"/>
       <c r="B43" s="18" t="s">
         <v>17</v>
       </c>
@@ -2403,7 +2450,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="33" t="s">
         <v>35</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -2444,7 +2491,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="30"/>
+      <c r="A45" s="34"/>
       <c r="B45" s="3" t="s">
         <v>13</v>
       </c>
@@ -2483,7 +2530,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="30"/>
+      <c r="A46" s="34"/>
       <c r="B46" s="3" t="s">
         <v>14</v>
       </c>
@@ -2522,7 +2569,7 @@
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="30"/>
+      <c r="A47" s="34"/>
       <c r="B47" s="3" t="s">
         <v>15</v>
       </c>
@@ -2561,7 +2608,7 @@
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="30"/>
+      <c r="A48" s="34"/>
       <c r="B48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2600,7 +2647,7 @@
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="30"/>
+      <c r="A49" s="34"/>
       <c r="B49" s="3" t="s">
         <v>17</v>
       </c>
@@ -2639,7 +2686,7 @@
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" s="36" t="s">
+      <c r="A50" s="40" t="s">
         <v>36</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -2680,7 +2727,7 @@
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" s="36"/>
+      <c r="A51" s="40"/>
       <c r="B51" s="6" t="s">
         <v>13</v>
       </c>
@@ -2719,7 +2766,7 @@
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" s="36"/>
+      <c r="A52" s="40"/>
       <c r="B52" s="6" t="s">
         <v>14</v>
       </c>
@@ -2758,7 +2805,7 @@
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A53" s="36"/>
+      <c r="A53" s="40"/>
       <c r="B53" s="6" t="s">
         <v>15</v>
       </c>
@@ -2797,7 +2844,7 @@
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" s="36"/>
+      <c r="A54" s="40"/>
       <c r="B54" s="6" t="s">
         <v>16</v>
       </c>
@@ -2836,7 +2883,7 @@
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A55" s="36"/>
+      <c r="A55" s="40"/>
       <c r="B55" s="6" t="s">
         <v>17</v>
       </c>
@@ -2875,7 +2922,7 @@
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A56" s="29" t="s">
+      <c r="A56" s="33" t="s">
         <v>37</v>
       </c>
       <c r="B56" s="3" t="s">
@@ -2916,7 +2963,7 @@
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A57" s="30"/>
+      <c r="A57" s="34"/>
       <c r="B57" s="3" t="s">
         <v>13</v>
       </c>
@@ -2955,7 +3002,7 @@
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A58" s="30"/>
+      <c r="A58" s="34"/>
       <c r="B58" s="3" t="s">
         <v>14</v>
       </c>
@@ -2994,7 +3041,7 @@
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A59" s="30"/>
+      <c r="A59" s="34"/>
       <c r="B59" s="3" t="s">
         <v>15</v>
       </c>
@@ -3033,7 +3080,7 @@
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A60" s="30"/>
+      <c r="A60" s="34"/>
       <c r="B60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3072,7 +3119,7 @@
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A61" s="30"/>
+      <c r="A61" s="34"/>
       <c r="B61" s="3" t="s">
         <v>17</v>
       </c>
@@ -3111,7 +3158,7 @@
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A62" s="35" t="s">
+      <c r="A62" s="39" t="s">
         <v>38</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -3152,7 +3199,7 @@
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A63" s="35"/>
+      <c r="A63" s="39"/>
       <c r="B63" s="2" t="s">
         <v>13</v>
       </c>
@@ -3191,7 +3238,7 @@
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A64" s="35"/>
+      <c r="A64" s="39"/>
       <c r="B64" s="2" t="s">
         <v>14</v>
       </c>
@@ -3230,7 +3277,7 @@
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A65" s="35"/>
+      <c r="A65" s="39"/>
       <c r="B65" s="2" t="s">
         <v>15</v>
       </c>
@@ -3269,7 +3316,7 @@
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A66" s="35"/>
+      <c r="A66" s="39"/>
       <c r="B66" s="2" t="s">
         <v>16</v>
       </c>
@@ -3308,7 +3355,7 @@
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A67" s="35"/>
+      <c r="A67" s="39"/>
       <c r="B67" s="2" t="s">
         <v>17</v>
       </c>
@@ -3347,7 +3394,7 @@
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A68" s="28" t="s">
+      <c r="A68" s="32" t="s">
         <v>39</v>
       </c>
       <c r="B68" s="15" t="s">
@@ -3388,7 +3435,7 @@
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A69" s="28"/>
+      <c r="A69" s="32"/>
       <c r="B69" s="15" t="s">
         <v>13</v>
       </c>
@@ -3427,7 +3474,7 @@
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A70" s="28"/>
+      <c r="A70" s="32"/>
       <c r="B70" s="15" t="s">
         <v>14</v>
       </c>
@@ -3466,7 +3513,7 @@
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A71" s="28"/>
+      <c r="A71" s="32"/>
       <c r="B71" s="15" t="s">
         <v>15</v>
       </c>
@@ -3505,7 +3552,7 @@
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A72" s="28"/>
+      <c r="A72" s="32"/>
       <c r="B72" s="15" t="s">
         <v>16</v>
       </c>
@@ -3544,7 +3591,7 @@
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A73" s="28"/>
+      <c r="A73" s="32"/>
       <c r="B73" s="15" t="s">
         <v>17</v>
       </c>
@@ -3583,7 +3630,7 @@
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A74" s="29" t="s">
+      <c r="A74" s="33" t="s">
         <v>40</v>
       </c>
       <c r="B74" s="3" t="s">
@@ -3624,7 +3671,7 @@
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A75" s="30"/>
+      <c r="A75" s="34"/>
       <c r="B75" s="3" t="s">
         <v>13</v>
       </c>
@@ -3663,7 +3710,7 @@
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A76" s="30"/>
+      <c r="A76" s="34"/>
       <c r="B76" s="3" t="s">
         <v>14</v>
       </c>
@@ -3702,7 +3749,7 @@
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A77" s="30"/>
+      <c r="A77" s="34"/>
       <c r="B77" s="3" t="s">
         <v>15</v>
       </c>
@@ -3741,7 +3788,7 @@
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A78" s="30"/>
+      <c r="A78" s="34"/>
       <c r="B78" s="3" t="s">
         <v>16</v>
       </c>
@@ -3780,7 +3827,7 @@
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A79" s="30"/>
+      <c r="A79" s="34"/>
       <c r="B79" s="3" t="s">
         <v>17</v>
       </c>
@@ -3819,7 +3866,7 @@
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A80" s="31" t="s">
+      <c r="A80" s="35" t="s">
         <v>41</v>
       </c>
       <c r="B80" s="18" t="s">
@@ -3860,7 +3907,7 @@
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A81" s="31"/>
+      <c r="A81" s="35"/>
       <c r="B81" s="18" t="s">
         <v>13</v>
       </c>
@@ -3899,7 +3946,7 @@
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A82" s="31"/>
+      <c r="A82" s="35"/>
       <c r="B82" s="18" t="s">
         <v>14</v>
       </c>
@@ -3938,7 +3985,7 @@
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A83" s="31"/>
+      <c r="A83" s="35"/>
       <c r="B83" s="18" t="s">
         <v>15</v>
       </c>
@@ -3977,7 +4024,7 @@
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A84" s="31"/>
+      <c r="A84" s="35"/>
       <c r="B84" s="18" t="s">
         <v>16</v>
       </c>
@@ -4016,7 +4063,7 @@
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A85" s="31"/>
+      <c r="A85" s="35"/>
       <c r="B85" s="18" t="s">
         <v>17</v>
       </c>
@@ -4055,7 +4102,7 @@
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A86" s="32" t="s">
+      <c r="A86" s="36" t="s">
         <v>42</v>
       </c>
       <c r="B86" s="9" t="s">
@@ -4096,7 +4143,7 @@
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A87" s="32"/>
+      <c r="A87" s="36"/>
       <c r="B87" s="9" t="s">
         <v>13</v>
       </c>
@@ -4135,7 +4182,7 @@
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A88" s="32"/>
+      <c r="A88" s="36"/>
       <c r="B88" s="9" t="s">
         <v>14</v>
       </c>
@@ -4174,7 +4221,7 @@
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A89" s="32"/>
+      <c r="A89" s="36"/>
       <c r="B89" s="9" t="s">
         <v>15</v>
       </c>
@@ -4213,7 +4260,7 @@
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A90" s="32"/>
+      <c r="A90" s="36"/>
       <c r="B90" s="9" t="s">
         <v>16</v>
       </c>
@@ -4252,7 +4299,7 @@
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A91" s="32"/>
+      <c r="A91" s="36"/>
       <c r="B91" s="9" t="s">
         <v>17</v>
       </c>
@@ -4291,7 +4338,7 @@
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A92" s="33" t="s">
+      <c r="A92" s="37" t="s">
         <v>43</v>
       </c>
       <c r="B92" s="12" t="s">
@@ -4332,7 +4379,7 @@
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A93" s="34"/>
+      <c r="A93" s="38"/>
       <c r="B93" s="12" t="s">
         <v>13</v>
       </c>
@@ -4371,7 +4418,7 @@
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A94" s="34"/>
+      <c r="A94" s="38"/>
       <c r="B94" s="12" t="s">
         <v>14</v>
       </c>
@@ -4410,7 +4457,7 @@
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A95" s="34"/>
+      <c r="A95" s="38"/>
       <c r="B95" s="12" t="s">
         <v>15</v>
       </c>
@@ -4449,7 +4496,7 @@
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A96" s="34"/>
+      <c r="A96" s="38"/>
       <c r="B96" s="12" t="s">
         <v>16</v>
       </c>
@@ -4488,7 +4535,7 @@
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A97" s="34"/>
+      <c r="A97" s="38"/>
       <c r="B97" s="12" t="s">
         <v>17</v>
       </c>
@@ -4527,7 +4574,7 @@
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A98" s="27"/>
+      <c r="A98" s="31"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -4542,7 +4589,7 @@
       <c r="M98" s="1"/>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A99" s="27"/>
+      <c r="A99" s="31"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -4557,7 +4604,7 @@
       <c r="M99" s="1"/>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A100" s="27"/>
+      <c r="A100" s="31"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -4572,7 +4619,7 @@
       <c r="M100" s="1"/>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A101" s="27"/>
+      <c r="A101" s="31"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -4587,7 +4634,7 @@
       <c r="M101" s="1"/>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A102" s="27"/>
+      <c r="A102" s="31"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -4602,7 +4649,7 @@
       <c r="M102" s="1"/>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A103" s="27"/>
+      <c r="A103" s="31"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -4617,7 +4664,7 @@
       <c r="M103" s="1"/>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A104" s="27"/>
+      <c r="A104" s="31"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -4632,7 +4679,7 @@
       <c r="M104" s="1"/>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A105" s="27"/>
+      <c r="A105" s="31"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -4647,7 +4694,7 @@
       <c r="M105" s="1"/>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A106" s="27"/>
+      <c r="A106" s="31"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -4662,7 +4709,7 @@
       <c r="M106" s="1"/>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A107" s="27"/>
+      <c r="A107" s="31"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -4677,7 +4724,7 @@
       <c r="M107" s="1"/>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A108" s="27"/>
+      <c r="A108" s="31"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -4692,7 +4739,7 @@
       <c r="M108" s="1"/>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A109" s="27"/>
+      <c r="A109" s="31"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -4707,18 +4754,11 @@
       <c r="M109" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
+  <mergeCells count="19">
     <mergeCell ref="A14:A19"/>
     <mergeCell ref="A20:A25"/>
     <mergeCell ref="A26:A31"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="A50:A55"/>
-    <mergeCell ref="A56:A61"/>
+    <mergeCell ref="N2:N17"/>
     <mergeCell ref="A98:A103"/>
     <mergeCell ref="A104:A109"/>
     <mergeCell ref="A68:A73"/>
@@ -4726,6 +4766,14 @@
     <mergeCell ref="A80:A85"/>
     <mergeCell ref="A86:A91"/>
     <mergeCell ref="A92:A97"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="A56:A61"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
